--- a/views/Resumen_modelos_bog.xlsx
+++ b/views/Resumen_modelos_bog.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Ciudad</t>
   </si>
@@ -44,13 +44,16 @@
     <t xml:space="preserve">MSE_test</t>
   </si>
   <si>
+    <t xml:space="preserve">Bogotá D.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XGBoost bog 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XGBoost bog 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bogotá D.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XGBoost bog 2</t>
   </si>
 </sst>
 </file>
@@ -419,36 +422,36 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>17112</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>12982479956963</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8661163899132</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4321316057831</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11599</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67.7828424497429</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.0000000013391964561671</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>111558473384669408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>17112</v>
@@ -480,13 +483,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -512,13 +515,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -544,13 +547,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -576,13 +579,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -608,13 +611,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -640,13 +643,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -672,13 +675,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -704,13 +707,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -736,13 +739,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -768,13 +771,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -800,13 +803,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -832,13 +835,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -864,13 +867,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -896,13 +899,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -928,13 +931,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -960,13 +963,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -992,13 +995,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1024,13 +1027,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1056,13 +1059,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1088,13 +1091,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1120,13 +1123,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1152,13 +1155,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1184,13 +1187,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
